--- a/simulated_data/10nodes_30len_trial1.xlsx
+++ b/simulated_data/10nodes_30len_trial1.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-19.82702006755683</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.82702006755326</v>
+        <v>22.52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.594999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28.47</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.92188056353761</v>
+        <v>22.52</v>
       </c>
       <c r="C3" t="n">
-        <v>-14.92188056358835</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.505</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.145</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.535</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18.845</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25.31</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.35674644752382</v>
+        <v>21.29</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.356746447548063</v>
+        <v>27.785</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.665</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.005</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.734999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.155</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.582856830683054</v>
+        <v>32.4</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.582856830672163</v>
+        <v>18.505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.665</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.445</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17.265</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.655</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.06</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-19.2462485561282</v>
+        <v>5.130000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>-19.24624855611732</v>
+        <v>11.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.445</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.585</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.655</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.615</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28.695</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-11.04561109197047</v>
+        <v>21.22</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.04561109194722</v>
+        <v>11.96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.265</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.585</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.625</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26.025</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.605</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.0726309382338</v>
+        <v>22.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.07263093828777</v>
+        <v>5.145</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.655</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.495</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.415</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.015</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-12.76316643753995</v>
+        <v>9.594999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.76316643754497</v>
+        <v>8.535</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.655</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.625</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.495</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.515</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.55961626587128</v>
+        <v>11.9</v>
       </c>
       <c r="C10" t="n">
-        <v>-16.55961626591039</v>
+        <v>18.845</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.734999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.615</v>
+      </c>
+      <c r="G10" t="n">
+        <v>26.025</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.415</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.39</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>28.47</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>25.31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.155</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.695</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.605</v>
+      </c>
+      <c r="H11" t="n">
+        <v>26.015</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.515</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17.42</v>
+        <v>18.67</v>
       </c>
       <c r="D2" t="n">
-        <v>23.09</v>
+        <v>21.68</v>
       </c>
       <c r="E2" t="n">
-        <v>25.85</v>
+        <v>28.26</v>
       </c>
       <c r="F2" t="n">
-        <v>6.57</v>
+        <v>4.04</v>
       </c>
       <c r="G2" t="n">
-        <v>22.96</v>
+        <v>15.25</v>
       </c>
       <c r="H2" t="n">
-        <v>19.22</v>
+        <v>21.83</v>
       </c>
       <c r="I2" t="n">
-        <v>12.67</v>
+        <v>9.77</v>
       </c>
       <c r="J2" t="n">
-        <v>9.550000000000001</v>
+        <v>12.21</v>
       </c>
       <c r="K2" t="n">
-        <v>32.05</v>
+        <v>28.22</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.42</v>
+        <v>18.67</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.1</v>
+        <v>17.24</v>
       </c>
       <c r="E3" t="n">
-        <v>19.81</v>
+        <v>19.66</v>
       </c>
       <c r="F3" t="n">
-        <v>11.56</v>
+        <v>18.01</v>
       </c>
       <c r="G3" t="n">
-        <v>8.84</v>
+        <v>12.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64</v>
+        <v>3.78</v>
       </c>
       <c r="I3" t="n">
-        <v>9.630000000000001</v>
+        <v>11.96</v>
       </c>
       <c r="J3" t="n">
-        <v>20.69</v>
+        <v>6.66</v>
       </c>
       <c r="K3" t="n">
-        <v>23.38</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.09</v>
+        <v>21.68</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1</v>
+        <v>17.24</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.51</v>
+        <v>7.07</v>
       </c>
       <c r="F4" t="n">
-        <v>25.11</v>
+        <v>18.08</v>
       </c>
       <c r="G4" t="n">
-        <v>22.68</v>
+        <v>6.88</v>
       </c>
       <c r="H4" t="n">
-        <v>28.7</v>
+        <v>20.35</v>
       </c>
       <c r="I4" t="n">
-        <v>16.97</v>
+        <v>12.54</v>
       </c>
       <c r="J4" t="n">
-        <v>14.23</v>
+        <v>15.36</v>
       </c>
       <c r="K4" t="n">
-        <v>18.04</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.85</v>
+        <v>28.26</v>
       </c>
       <c r="C5" t="n">
-        <v>19.81</v>
+        <v>19.66</v>
       </c>
       <c r="D5" t="n">
-        <v>12.51</v>
+        <v>7.07</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.56</v>
+        <v>24.86</v>
       </c>
       <c r="G5" t="n">
-        <v>12.98</v>
+        <v>13.02</v>
       </c>
       <c r="H5" t="n">
-        <v>21.95</v>
+        <v>21.86</v>
       </c>
       <c r="I5" t="n">
-        <v>14.25</v>
+        <v>18.69</v>
       </c>
       <c r="J5" t="n">
-        <v>20.39</v>
+        <v>20.03</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.57</v>
+        <v>4.04</v>
       </c>
       <c r="C6" t="n">
-        <v>11.56</v>
+        <v>18.01</v>
       </c>
       <c r="D6" t="n">
-        <v>25.11</v>
+        <v>18.08</v>
       </c>
       <c r="E6" t="n">
-        <v>24.56</v>
+        <v>24.86</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.54</v>
+        <v>12.03</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>21.52</v>
       </c>
       <c r="I6" t="n">
-        <v>10.31</v>
+        <v>7.16</v>
       </c>
       <c r="J6" t="n">
-        <v>13.85</v>
+        <v>11.35</v>
       </c>
       <c r="K6" t="n">
-        <v>30.08</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.96</v>
+        <v>15.25</v>
       </c>
       <c r="C7" t="n">
-        <v>8.84</v>
+        <v>12.6</v>
       </c>
       <c r="D7" t="n">
-        <v>22.68</v>
+        <v>6.88</v>
       </c>
       <c r="E7" t="n">
-        <v>12.98</v>
+        <v>13.02</v>
       </c>
       <c r="F7" t="n">
-        <v>18.54</v>
+        <v>12.03</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.12</v>
+        <v>16.24</v>
       </c>
       <c r="I7" t="n">
-        <v>10.98</v>
+        <v>5.72</v>
       </c>
       <c r="J7" t="n">
-        <v>22.63</v>
+        <v>8.94</v>
       </c>
       <c r="K7" t="n">
-        <v>15.06</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.22</v>
+        <v>21.83</v>
       </c>
       <c r="C8" t="n">
-        <v>2.64</v>
+        <v>3.78</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7</v>
+        <v>20.35</v>
       </c>
       <c r="E8" t="n">
-        <v>21.95</v>
+        <v>21.86</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>21.52</v>
       </c>
       <c r="G8" t="n">
-        <v>10.12</v>
+        <v>16.24</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.26</v>
+        <v>15.71</v>
       </c>
       <c r="J8" t="n">
-        <v>23.15</v>
+        <v>10.22</v>
       </c>
       <c r="K8" t="n">
-        <v>25.07</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.67</v>
+        <v>9.77</v>
       </c>
       <c r="C9" t="n">
-        <v>9.630000000000001</v>
+        <v>11.96</v>
       </c>
       <c r="D9" t="n">
-        <v>16.97</v>
+        <v>12.54</v>
       </c>
       <c r="E9" t="n">
-        <v>14.25</v>
+        <v>18.69</v>
       </c>
       <c r="F9" t="n">
-        <v>10.31</v>
+        <v>7.16</v>
       </c>
       <c r="G9" t="n">
-        <v>10.98</v>
+        <v>5.72</v>
       </c>
       <c r="H9" t="n">
-        <v>12.26</v>
+        <v>15.71</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.92</v>
+        <v>5.85</v>
       </c>
       <c r="K9" t="n">
-        <v>19.88</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.550000000000001</v>
+        <v>12.21</v>
       </c>
       <c r="C10" t="n">
-        <v>20.69</v>
+        <v>6.66</v>
       </c>
       <c r="D10" t="n">
-        <v>14.23</v>
+        <v>15.36</v>
       </c>
       <c r="E10" t="n">
-        <v>20.39</v>
+        <v>20.03</v>
       </c>
       <c r="F10" t="n">
-        <v>13.85</v>
+        <v>11.35</v>
       </c>
       <c r="G10" t="n">
-        <v>22.63</v>
+        <v>8.94</v>
       </c>
       <c r="H10" t="n">
-        <v>23.15</v>
+        <v>10.22</v>
       </c>
       <c r="I10" t="n">
-        <v>11.92</v>
+        <v>5.85</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>26.98</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.05</v>
+        <v>28.22</v>
       </c>
       <c r="C11" t="n">
-        <v>23.38</v>
+        <v>26.4</v>
       </c>
       <c r="D11" t="n">
-        <v>18.04</v>
+        <v>9.17</v>
       </c>
       <c r="E11" t="n">
-        <v>6.6</v>
+        <v>10.28</v>
       </c>
       <c r="F11" t="n">
-        <v>30.08</v>
+        <v>24.24</v>
       </c>
       <c r="G11" t="n">
-        <v>15.06</v>
+        <v>15.33</v>
       </c>
       <c r="H11" t="n">
-        <v>25.07</v>
+        <v>29.43</v>
       </c>
       <c r="I11" t="n">
-        <v>19.88</v>
+        <v>20.4</v>
       </c>
       <c r="J11" t="n">
-        <v>26.98</v>
+        <v>24.21</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.238520843234864</v>
+        <v>12.49260586887342</v>
       </c>
       <c r="C2" t="n">
-        <v>-14.13779936037285</v>
+        <v>-3.566201455657777</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.861832007165503</v>
+        <v>-5.887723273761019</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.660295587463462</v>
+        <v>-0.3043119882190825</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.81336691588367</v>
+        <v>1.641996445831544</v>
       </c>
       <c r="C4" t="n">
-        <v>5.846900268743951</v>
+        <v>15.2043942807322</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.767694505502066</v>
+        <v>-4.137065511376441</v>
       </c>
       <c r="C5" t="n">
-        <v>11.70955996897461</v>
+        <v>19.28007063169314</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.9415882522241</v>
+        <v>12.10428910645653</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.91529276182025</v>
+        <v>0.4549286996290702</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.869587804134461</v>
+        <v>3.145639466959639</v>
       </c>
       <c r="C7" t="n">
-        <v>5.953240941270307</v>
+        <v>8.486153008281747</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.47009446967888</v>
+        <v>-9.283682565299079</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.065262560979556</v>
+        <v>-1.967941272536617</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2566222536124766</v>
+        <v>5.522089546181704</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.9597021262229</v>
+        <v>3.282573920910968</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2278758089549</v>
+        <v>0.7716684069545385</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.626834044212909</v>
+        <v>-0.1349407760916908</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.352266713239918</v>
+        <v>5.150761512685111</v>
       </c>
       <c r="C11" t="n">
-        <v>17.85548526208305</v>
+        <v>23.68027498352437</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>16.53</v>
+        <v>6.94</v>
       </c>
       <c r="D2" t="n">
-        <v>8.67</v>
+        <v>19.05</v>
       </c>
       <c r="E2" t="n">
-        <v>7.32</v>
+        <v>24.39</v>
       </c>
       <c r="F2" t="n">
-        <v>2.71</v>
+        <v>0.82</v>
       </c>
       <c r="G2" t="n">
-        <v>20.05</v>
+        <v>12.42</v>
       </c>
       <c r="H2" t="n">
-        <v>16.8</v>
+        <v>10.97</v>
       </c>
       <c r="I2" t="n">
-        <v>26.01</v>
+        <v>9.99</v>
       </c>
       <c r="J2" t="n">
-        <v>28.72</v>
+        <v>4.62</v>
       </c>
       <c r="K2" t="n">
-        <v>12.47</v>
+        <v>29.45</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.53</v>
+        <v>6.94</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.38</v>
+        <v>12.11</v>
       </c>
       <c r="E3" t="n">
-        <v>21.68</v>
+        <v>17.45</v>
       </c>
       <c r="F3" t="n">
-        <v>14.09</v>
+        <v>6.12</v>
       </c>
       <c r="G3" t="n">
-        <v>25.2</v>
+        <v>5.48</v>
       </c>
       <c r="H3" t="n">
-        <v>3.79</v>
+        <v>4.03</v>
       </c>
       <c r="I3" t="n">
-        <v>21.68</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>14.9</v>
+        <v>2.32</v>
       </c>
       <c r="K3" t="n">
-        <v>17.07</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.67</v>
+        <v>19.05</v>
       </c>
       <c r="C4" t="n">
-        <v>11.38</v>
+        <v>12.11</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.72</v>
+        <v>5.34</v>
       </c>
       <c r="F4" t="n">
-        <v>7.05</v>
+        <v>18.23</v>
       </c>
       <c r="G4" t="n">
-        <v>26.01</v>
+        <v>6.63</v>
       </c>
       <c r="H4" t="n">
-        <v>9.48</v>
+        <v>8.08</v>
       </c>
       <c r="I4" t="n">
-        <v>28.18</v>
+        <v>9.06</v>
       </c>
       <c r="J4" t="n">
-        <v>25.74</v>
+        <v>14.43</v>
       </c>
       <c r="K4" t="n">
-        <v>17.34</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.32</v>
+        <v>24.39</v>
       </c>
       <c r="C5" t="n">
-        <v>21.68</v>
+        <v>17.45</v>
       </c>
       <c r="D5" t="n">
-        <v>15.72</v>
+        <v>5.34</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.94</v>
+        <v>23.57</v>
       </c>
       <c r="G5" t="n">
-        <v>14.9</v>
+        <v>11.97</v>
       </c>
       <c r="H5" t="n">
-        <v>22.76</v>
+        <v>13.42</v>
       </c>
       <c r="I5" t="n">
-        <v>24.39</v>
+        <v>14.4</v>
       </c>
       <c r="J5" t="n">
-        <v>30.89</v>
+        <v>19.77</v>
       </c>
       <c r="K5" t="n">
-        <v>10.3</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.71</v>
+        <v>0.82</v>
       </c>
       <c r="C6" t="n">
-        <v>14.09</v>
+        <v>6.12</v>
       </c>
       <c r="D6" t="n">
-        <v>7.05</v>
+        <v>18.23</v>
       </c>
       <c r="E6" t="n">
-        <v>8.94</v>
+        <v>23.57</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.78</v>
+        <v>11.6</v>
       </c>
       <c r="H6" t="n">
-        <v>14.09</v>
+        <v>10.15</v>
       </c>
       <c r="I6" t="n">
-        <v>24.66</v>
+        <v>9.17</v>
       </c>
       <c r="J6" t="n">
-        <v>26.29</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>11.65</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.05</v>
+        <v>12.42</v>
       </c>
       <c r="C7" t="n">
-        <v>25.2</v>
+        <v>5.48</v>
       </c>
       <c r="D7" t="n">
-        <v>26.01</v>
+        <v>6.63</v>
       </c>
       <c r="E7" t="n">
-        <v>14.9</v>
+        <v>11.97</v>
       </c>
       <c r="F7" t="n">
-        <v>19.78</v>
+        <v>11.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.18</v>
+        <v>1.45</v>
       </c>
       <c r="I7" t="n">
-        <v>13.55</v>
+        <v>2.43</v>
       </c>
       <c r="J7" t="n">
-        <v>26.56</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.67</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.8</v>
+        <v>10.97</v>
       </c>
       <c r="C8" t="n">
-        <v>3.79</v>
+        <v>4.03</v>
       </c>
       <c r="D8" t="n">
-        <v>9.48</v>
+        <v>8.08</v>
       </c>
       <c r="E8" t="n">
-        <v>22.76</v>
+        <v>13.42</v>
       </c>
       <c r="F8" t="n">
-        <v>14.09</v>
+        <v>10.15</v>
       </c>
       <c r="G8" t="n">
-        <v>28.18</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>25.47</v>
+        <v>0.98</v>
       </c>
       <c r="J8" t="n">
-        <v>18.16</v>
+        <v>6.35</v>
       </c>
       <c r="K8" t="n">
-        <v>19.51</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.01</v>
+        <v>9.99</v>
       </c>
       <c r="C9" t="n">
-        <v>21.68</v>
+        <v>3.05</v>
       </c>
       <c r="D9" t="n">
-        <v>28.18</v>
+        <v>9.06</v>
       </c>
       <c r="E9" t="n">
-        <v>24.39</v>
+        <v>14.4</v>
       </c>
       <c r="F9" t="n">
-        <v>24.66</v>
+        <v>9.17</v>
       </c>
       <c r="G9" t="n">
-        <v>13.55</v>
+        <v>2.43</v>
       </c>
       <c r="H9" t="n">
-        <v>25.47</v>
+        <v>0.98</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.45</v>
+        <v>5.37</v>
       </c>
       <c r="K9" t="n">
-        <v>14.36</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.72</v>
+        <v>4.62</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9</v>
+        <v>2.32</v>
       </c>
       <c r="D10" t="n">
-        <v>25.74</v>
+        <v>14.43</v>
       </c>
       <c r="E10" t="n">
-        <v>30.89</v>
+        <v>19.77</v>
       </c>
       <c r="F10" t="n">
-        <v>26.29</v>
+        <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>26.56</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
-        <v>18.16</v>
+        <v>6.35</v>
       </c>
       <c r="I10" t="n">
-        <v>15.45</v>
+        <v>5.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.95</v>
+        <v>24.83</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.47</v>
+        <v>29.45</v>
       </c>
       <c r="C11" t="n">
-        <v>17.07</v>
+        <v>22.52</v>
       </c>
       <c r="D11" t="n">
-        <v>17.34</v>
+        <v>10.4</v>
       </c>
       <c r="E11" t="n">
-        <v>10.3</v>
+        <v>5.07</v>
       </c>
       <c r="F11" t="n">
-        <v>11.65</v>
+        <v>28.63</v>
       </c>
       <c r="G11" t="n">
-        <v>8.67</v>
+        <v>17.04</v>
       </c>
       <c r="H11" t="n">
-        <v>19.51</v>
+        <v>18.49</v>
       </c>
       <c r="I11" t="n">
-        <v>14.36</v>
+        <v>19.46</v>
       </c>
       <c r="J11" t="n">
-        <v>21.95</v>
+        <v>24.83</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3184551983285009</v>
+        <v>-19.82702006755683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1859920185152183</v>
+        <v>-19.82702006755326</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06208940503764137</v>
+        <v>-14.92188056353761</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3720964273343368</v>
+        <v>-14.92188056358835</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3972398311834918</v>
+        <v>-6.35674644752382</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1262971821814687</v>
+        <v>-6.356746447548063</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1824352609362416</v>
+        <v>-2.582856830683054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4167169450707411</v>
+        <v>-2.582856830672163</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2741775349916781</v>
+        <v>-19.2462485561282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09724411236098356</v>
+        <v>-19.24624855611732</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3686900200798017</v>
+        <v>-11.04561109197047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4503812020498953</v>
+        <v>-11.04561109194722</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1963734509409409</v>
+        <v>-12.0726309382338</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4184020877067557</v>
+        <v>-12.07263093828777</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6315751193748934</v>
+        <v>-12.76316643753995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0219959823912307</v>
+        <v>-12.76316643754497</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4700169142524281</v>
+        <v>-16.55961626587128</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5210778029546403</v>
+        <v>-16.55961626591039</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1417365653966593</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2202700741878695</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.46</v>
+        <v>17.41</v>
       </c>
       <c r="D2" t="n">
-        <v>23.76</v>
+        <v>23.09</v>
       </c>
       <c r="E2" t="n">
-        <v>29.25</v>
+        <v>25.85</v>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>6.57</v>
       </c>
       <c r="G2" t="n">
-        <v>18.81</v>
+        <v>22.96</v>
       </c>
       <c r="H2" t="n">
-        <v>15.66</v>
+        <v>19.24</v>
       </c>
       <c r="I2" t="n">
-        <v>12.35</v>
+        <v>12.67</v>
       </c>
       <c r="J2" t="n">
-        <v>7.87</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>34.02</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.46</v>
+        <v>17.41</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.29</v>
+        <v>26.1</v>
       </c>
       <c r="E3" t="n">
-        <v>18.79</v>
+        <v>19.8</v>
       </c>
       <c r="F3" t="n">
-        <v>7.82</v>
+        <v>11.55</v>
       </c>
       <c r="G3" t="n">
-        <v>8.35</v>
+        <v>8.85</v>
       </c>
       <c r="H3" t="n">
-        <v>5.19</v>
+        <v>2.64</v>
       </c>
       <c r="I3" t="n">
-        <v>1.89</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>2.59</v>
+        <v>20.69</v>
       </c>
       <c r="K3" t="n">
-        <v>23.56</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.76</v>
+        <v>23.09</v>
       </c>
       <c r="C4" t="n">
-        <v>13.29</v>
+        <v>26.1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.49</v>
+        <v>12.53</v>
       </c>
       <c r="F4" t="n">
-        <v>21.11</v>
+        <v>25.12</v>
       </c>
       <c r="G4" t="n">
-        <v>4.95</v>
+        <v>22.68</v>
       </c>
       <c r="H4" t="n">
-        <v>8.1</v>
+        <v>28.7</v>
       </c>
       <c r="I4" t="n">
-        <v>11.4</v>
+        <v>16.97</v>
       </c>
       <c r="J4" t="n">
-        <v>15.89</v>
+        <v>14.23</v>
       </c>
       <c r="K4" t="n">
-        <v>10.26</v>
+        <v>18.01</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.25</v>
+        <v>25.85</v>
       </c>
       <c r="C5" t="n">
-        <v>18.79</v>
+        <v>19.8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.49</v>
+        <v>12.53</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.6</v>
+        <v>24.55</v>
       </c>
       <c r="G5" t="n">
-        <v>10.44</v>
+        <v>12.96</v>
       </c>
       <c r="H5" t="n">
-        <v>13.59</v>
+        <v>21.93</v>
       </c>
       <c r="I5" t="n">
-        <v>16.9</v>
+        <v>14.25</v>
       </c>
       <c r="J5" t="n">
-        <v>21.38</v>
+        <v>20.39</v>
       </c>
       <c r="K5" t="n">
-        <v>4.77</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.64</v>
+        <v>6.57</v>
       </c>
       <c r="C6" t="n">
-        <v>7.82</v>
+        <v>11.55</v>
       </c>
       <c r="D6" t="n">
-        <v>21.11</v>
+        <v>25.12</v>
       </c>
       <c r="E6" t="n">
-        <v>26.6</v>
+        <v>24.55</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.16</v>
+        <v>18.54</v>
       </c>
       <c r="H6" t="n">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="I6" t="n">
-        <v>9.710000000000001</v>
+        <v>10.31</v>
       </c>
       <c r="J6" t="n">
-        <v>5.22</v>
+        <v>13.85</v>
       </c>
       <c r="K6" t="n">
-        <v>31.38</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.81</v>
+        <v>22.96</v>
       </c>
       <c r="C7" t="n">
-        <v>8.35</v>
+        <v>8.85</v>
       </c>
       <c r="D7" t="n">
-        <v>4.95</v>
+        <v>22.68</v>
       </c>
       <c r="E7" t="n">
-        <v>10.44</v>
+        <v>12.96</v>
       </c>
       <c r="F7" t="n">
-        <v>16.16</v>
+        <v>18.54</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>10.11</v>
       </c>
       <c r="I7" t="n">
-        <v>6.45</v>
+        <v>10.98</v>
       </c>
       <c r="J7" t="n">
-        <v>10.94</v>
+        <v>22.63</v>
       </c>
       <c r="K7" t="n">
-        <v>15.21</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.66</v>
+        <v>19.24</v>
       </c>
       <c r="C8" t="n">
-        <v>5.19</v>
+        <v>2.64</v>
       </c>
       <c r="D8" t="n">
-        <v>8.1</v>
+        <v>28.7</v>
       </c>
       <c r="E8" t="n">
-        <v>13.59</v>
+        <v>21.93</v>
       </c>
       <c r="F8" t="n">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>10.11</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>12.26</v>
       </c>
       <c r="J8" t="n">
-        <v>7.79</v>
+        <v>23.16</v>
       </c>
       <c r="K8" t="n">
-        <v>18.37</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.35</v>
+        <v>12.67</v>
       </c>
       <c r="C9" t="n">
-        <v>1.89</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>11.4</v>
+        <v>16.97</v>
       </c>
       <c r="E9" t="n">
-        <v>16.9</v>
+        <v>14.25</v>
       </c>
       <c r="F9" t="n">
-        <v>9.710000000000001</v>
+        <v>10.31</v>
       </c>
       <c r="G9" t="n">
-        <v>6.45</v>
+        <v>10.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>12.26</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.49</v>
+        <v>11.92</v>
       </c>
       <c r="K9" t="n">
-        <v>21.67</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.87</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>2.59</v>
+        <v>20.69</v>
       </c>
       <c r="D10" t="n">
-        <v>15.89</v>
+        <v>14.23</v>
       </c>
       <c r="E10" t="n">
-        <v>21.38</v>
+        <v>20.39</v>
       </c>
       <c r="F10" t="n">
-        <v>5.22</v>
+        <v>13.85</v>
       </c>
       <c r="G10" t="n">
-        <v>10.94</v>
+        <v>22.63</v>
       </c>
       <c r="H10" t="n">
-        <v>7.79</v>
+        <v>23.16</v>
       </c>
       <c r="I10" t="n">
-        <v>4.49</v>
+        <v>11.92</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>26.15</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.02</v>
+        <v>32.04</v>
       </c>
       <c r="C11" t="n">
-        <v>23.56</v>
+        <v>23.41</v>
       </c>
       <c r="D11" t="n">
-        <v>10.26</v>
+        <v>18.01</v>
       </c>
       <c r="E11" t="n">
-        <v>4.77</v>
+        <v>6.58</v>
       </c>
       <c r="F11" t="n">
-        <v>31.38</v>
+        <v>30.09</v>
       </c>
       <c r="G11" t="n">
-        <v>15.21</v>
+        <v>15.08</v>
       </c>
       <c r="H11" t="n">
-        <v>18.37</v>
+        <v>25.08</v>
       </c>
       <c r="I11" t="n">
-        <v>21.67</v>
+        <v>19.89</v>
       </c>
       <c r="J11" t="n">
-        <v>26.15</v>
+        <v>26.97</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-22.13766962660814</v>
+        <v>-7.796514002178778</v>
       </c>
       <c r="C2" t="n">
-        <v>-22.13766962657203</v>
+        <v>-12.23038799795498</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.73983160689633</v>
+        <v>-8.825269466061952</v>
       </c>
       <c r="C3" t="n">
-        <v>-14.73983160753329</v>
+        <v>5.152419583952499</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.339853626749829</v>
+        <v>14.55739879591135</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.339853626809898</v>
+        <v>-6.452089513760725</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.45539346887346</v>
+        <v>10.96865378844793</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.455393468839523</v>
+        <v>5.549242801966425</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-20.26758225018922</v>
+        <v>-10.55715213556596</v>
       </c>
       <c r="C6" t="n">
-        <v>-20.26758225007193</v>
+        <v>-6.263397840302169</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.838803015210635</v>
+        <v>-1.281985461093679</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.838803014718319</v>
+        <v>9.785895004783775</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-11.06759452209057</v>
+        <v>-10.92606018556168</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.06759452303286</v>
+        <v>6.750535611248786</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-13.40223203509209</v>
+        <v>-1.580462193574821</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.40223203429066</v>
+        <v>-1.192106861574693</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.57385837043678</v>
+        <v>1.743211824783678</v>
       </c>
       <c r="C10" t="n">
-        <v>-16.57385837050056</v>
+        <v>-12.63645826980601</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.918566659243125</v>
+        <v>13.69817903489391</v>
       </c>
       <c r="C11" t="n">
-        <v>1.918566659279304</v>
+        <v>11.53634748144709</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000202178955078125</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001852512359619141</v>
+        <v>15.51</v>
       </c>
       <c r="D2" t="n">
-        <v>0.286968469619751</v>
+        <v>27.21</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9551966190338135</v>
+        <v>20.41</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1701169013977051</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03559255599975586</v>
+        <v>12.52</v>
       </c>
       <c r="H2" t="n">
-        <v>1.166273832321167</v>
+        <v>20.68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.2601256216709213</v>
       </c>
       <c r="C2" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.14093206064009</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.612888888888889</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2336418318570436</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.000202178955078125</v>
+        <v>-0.3746223592204074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.145393974618114</v>
       </c>
       <c r="C3" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7441253263707571</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.167888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2115981646599605</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001852512359619141</v>
+        <v>0.1884585625837769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.5695692078711695</v>
       </c>
       <c r="C4" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.23961661341853</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.200666666666666</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3292638354271273</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.286968469619751</v>
+        <v>0.1827480237348144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.4368851043664262</v>
       </c>
       <c r="C5" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9170896785109983</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.248</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4083349117593776</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9551966190338135</v>
+        <v>-0.09258468982677137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.2687605798570402</v>
       </c>
       <c r="C6" t="n">
-        <v>5.790000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6431870669745958</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.263555555555556</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1579350549260088</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1701169013977051</v>
+        <v>-0.3180547322046107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.09969578304276282</v>
       </c>
       <c r="C7" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.678851174934726</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.245111111111111</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5737346638178529</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.03559255599975586</v>
+        <v>-0.08922004332781258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.2396235012557638</v>
       </c>
       <c r="C8" t="n">
-        <v>19.13</v>
+        <v>0.3836327186633641</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.0903998481759607</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2826334776250217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3641436747264458</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4817591247309714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7691995001062946</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.04202407313758047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="K2" t="n">
+        <v>34.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8807550644567219</v>
+        <v>8.1</v>
       </c>
       <c r="E8" t="n">
-        <v>5.746</v>
+        <v>13.59</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3663329199236291</v>
+        <v>13.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.166273832321167</v>
+        <v>3.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F11" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-22.13766962660814</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-22.13766962657203</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-14.73983160689633</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-14.73983160753329</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.339853626749829</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.339853626809898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.45539346887346</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.455393468839523</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-20.26758225018922</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-20.26758225007193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-8.838803015210635</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.838803014718319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-11.06759452209057</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.06759452303286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-13.40223203509209</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-13.40223203429066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-16.57385837043678</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-16.57385837050056</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.918566659243125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.918566659279304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4756282461705267</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1813368895785773</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.01387107466012094</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4252909998644664</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1597262559565138</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6127915299921919</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4364952794186337</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05692556924784245</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3390334843563435</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1670140753776196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1959554366786514</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.2772169157350205</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.03658046757591273</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3740381538209845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.08989317255329829</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.101645005501714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3553500115442064</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3704017045947065</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5181794848051438</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.123749456888062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-19.06622824627847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17.51779802622081</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-13.20782992533537</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-16.85355442079693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25.74054059997812</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.12274635240454</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.62219402282043</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-7.773462705779718</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-21.68446306023456</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7377572526749929</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.205613506654385</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-15.16942925937001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-12.96429537372637</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-14.60636784835814</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-8.521439726058793</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.60856692764857</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-8.966630057308992</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.49646500541058</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31.8425382594896</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.86338547475752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002765655517578125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002615451812744141</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002624988555908203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.261672735214233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.724284410476685</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1135647296905518</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.08456087112426758</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.286470890045166</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01372337341308594</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009461641311645508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18.45</v>
+        <v>11.31</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>25.6</v>
       </c>
       <c r="E2" t="n">
-        <v>29.81</v>
+        <v>21.55</v>
       </c>
       <c r="F2" t="n">
-        <v>4.03</v>
+        <v>5.68</v>
       </c>
       <c r="G2" t="n">
-        <v>12.17</v>
+        <v>16.02</v>
       </c>
       <c r="H2" t="n">
-        <v>15.16</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>11.28</v>
+        <v>12.04</v>
       </c>
       <c r="J2" t="n">
-        <v>13.68</v>
+        <v>16.01</v>
       </c>
       <c r="K2" t="n">
-        <v>31.74</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.59</v>
+        <v>11.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.99</v>
+        <v>14.75</v>
       </c>
       <c r="E3" t="n">
-        <v>17.77</v>
+        <v>12.44</v>
       </c>
       <c r="F3" t="n">
-        <v>12.01</v>
+        <v>11.51</v>
       </c>
       <c r="G3" t="n">
-        <v>16.81</v>
+        <v>5.95</v>
       </c>
       <c r="H3" t="n">
-        <v>4.09</v>
+        <v>7.01</v>
       </c>
       <c r="I3" t="n">
-        <v>8.1</v>
+        <v>3.32</v>
       </c>
       <c r="J3" t="n">
-        <v>18.92</v>
+        <v>9.66</v>
       </c>
       <c r="K3" t="n">
-        <v>29.79</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.58</v>
+        <v>25.6</v>
       </c>
       <c r="C4" t="n">
-        <v>29.58</v>
+        <v>14.75</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.38</v>
+        <v>16.02</v>
       </c>
       <c r="F4" t="n">
-        <v>32.15</v>
+        <v>23.78</v>
       </c>
       <c r="G4" t="n">
-        <v>20.16</v>
+        <v>9.65</v>
       </c>
       <c r="H4" t="n">
-        <v>26.93</v>
+        <v>21.51</v>
       </c>
       <c r="I4" t="n">
-        <v>15.15</v>
+        <v>16.05</v>
       </c>
       <c r="J4" t="n">
-        <v>7.76</v>
+        <v>12.8</v>
       </c>
       <c r="K4" t="n">
-        <v>17.56</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.99</v>
+        <v>21.55</v>
       </c>
       <c r="C5" t="n">
-        <v>19.24</v>
+        <v>12.44</v>
       </c>
       <c r="D5" t="n">
-        <v>6.95</v>
+        <v>16.02</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>19.3</v>
+        <v>23.55</v>
       </c>
       <c r="G5" t="n">
-        <v>14.46</v>
+        <v>14.34</v>
       </c>
       <c r="H5" t="n">
-        <v>18.43</v>
+        <v>17.58</v>
       </c>
       <c r="I5" t="n">
-        <v>16.02</v>
+        <v>9.93</v>
       </c>
       <c r="J5" t="n">
-        <v>38.13</v>
+        <v>20.11</v>
       </c>
       <c r="K5" t="n">
-        <v>9.880000000000001</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.23</v>
+        <v>5.68</v>
       </c>
       <c r="C6" t="n">
-        <v>10.71</v>
+        <v>11.51</v>
       </c>
       <c r="D6" t="n">
-        <v>30.95</v>
+        <v>23.78</v>
       </c>
       <c r="E6" t="n">
-        <v>17.59</v>
+        <v>23.55</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.89</v>
+        <v>14.26</v>
       </c>
       <c r="H6" t="n">
-        <v>18.64</v>
+        <v>6.68</v>
       </c>
       <c r="I6" t="n">
-        <v>10.89</v>
+        <v>13.62</v>
       </c>
       <c r="J6" t="n">
-        <v>13.06</v>
+        <v>12.3</v>
       </c>
       <c r="K6" t="n">
-        <v>27</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.27</v>
+        <v>16.02</v>
       </c>
       <c r="C7" t="n">
-        <v>7.11</v>
+        <v>5.95</v>
       </c>
       <c r="D7" t="n">
-        <v>23.85</v>
+        <v>9.65</v>
       </c>
       <c r="E7" t="n">
-        <v>20.07</v>
+        <v>14.34</v>
       </c>
       <c r="F7" t="n">
-        <v>25.28</v>
+        <v>14.26</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.81</v>
+        <v>12.06</v>
       </c>
       <c r="I7" t="n">
-        <v>8.83</v>
+        <v>8.52</v>
       </c>
       <c r="J7" t="n">
-        <v>21.47</v>
+        <v>5.84</v>
       </c>
       <c r="K7" t="n">
-        <v>19.25</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.84</v>
+        <v>4.33</v>
       </c>
       <c r="C8" t="n">
-        <v>6.2</v>
+        <v>7.01</v>
       </c>
       <c r="D8" t="n">
-        <v>37.11</v>
+        <v>21.51</v>
       </c>
       <c r="E8" t="n">
-        <v>17.59</v>
+        <v>17.58</v>
       </c>
       <c r="F8" t="n">
-        <v>14.67</v>
+        <v>6.68</v>
       </c>
       <c r="G8" t="n">
-        <v>13.91</v>
+        <v>12.06</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.82</v>
+        <v>7.83</v>
       </c>
       <c r="J8" t="n">
-        <v>22.09</v>
+        <v>13.09</v>
       </c>
       <c r="K8" t="n">
-        <v>19.88</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.91</v>
+        <v>12.04</v>
       </c>
       <c r="C9" t="n">
-        <v>8.970000000000001</v>
+        <v>3.32</v>
       </c>
       <c r="D9" t="n">
-        <v>15.6</v>
+        <v>16.05</v>
       </c>
       <c r="E9" t="n">
-        <v>13.29</v>
+        <v>9.93</v>
       </c>
       <c r="F9" t="n">
-        <v>8.550000000000001</v>
+        <v>13.62</v>
       </c>
       <c r="G9" t="n">
-        <v>8.42</v>
+        <v>8.52</v>
       </c>
       <c r="H9" t="n">
-        <v>11.17</v>
+        <v>7.83</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.46</v>
+        <v>12.91</v>
       </c>
       <c r="K9" t="n">
-        <v>19.38</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.12</v>
+        <v>16.01</v>
       </c>
       <c r="C10" t="n">
-        <v>18.77</v>
+        <v>9.66</v>
       </c>
       <c r="D10" t="n">
-        <v>7.71</v>
+        <v>12.8</v>
       </c>
       <c r="E10" t="n">
-        <v>16.39</v>
+        <v>20.11</v>
       </c>
       <c r="F10" t="n">
-        <v>18.17</v>
+        <v>12.3</v>
       </c>
       <c r="G10" t="n">
-        <v>30.58</v>
+        <v>5.84</v>
       </c>
       <c r="H10" t="n">
-        <v>8.74</v>
+        <v>13.09</v>
       </c>
       <c r="I10" t="n">
-        <v>9.94</v>
+        <v>12.91</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>28.25</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.2</v>
+        <v>17.91</v>
       </c>
       <c r="C11" t="n">
-        <v>20.83</v>
+        <v>15.57</v>
       </c>
       <c r="D11" t="n">
-        <v>14.75</v>
+        <v>26.24</v>
       </c>
       <c r="E11" t="n">
-        <v>8.24</v>
+        <v>11.8</v>
       </c>
       <c r="F11" t="n">
-        <v>30.39</v>
+        <v>22.39</v>
       </c>
       <c r="G11" t="n">
-        <v>11.96</v>
+        <v>20.69</v>
       </c>
       <c r="H11" t="n">
-        <v>32.15</v>
+        <v>15.78</v>
       </c>
       <c r="I11" t="n">
-        <v>17.65</v>
+        <v>12.35</v>
       </c>
       <c r="J11" t="n">
-        <v>34.53</v>
+        <v>25.22</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-4.592753330230878</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.421001878913128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.966825380771416</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.358623815665887</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20.71152160540832</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.556171624293868</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.04818196994</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-7.393468505999484</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.456381969446157</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.15074860969423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.34907845941093</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.88474421751106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.7061862591133593</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.516241290830158</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.02474858123981</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.175222481097921</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10.83128526768956</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.70080435027889</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.60726459921116</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-9.241001995014839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14093206064009</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.612888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2336418318570436</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000202178955078125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7441253263707571</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.167888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2115981646599605</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001852512359619141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.23961661341853</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.200666666666666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3292638354271273</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.286968469619751</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9170896785109983</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4083349117593776</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9551966190338135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5.790000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6431870669745958</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.263555555555556</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1579350549260088</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1701169013977051</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.678851174934726</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.245111111111111</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5737346638178529</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03559255599975586</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8807550644567219</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.746</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3663329199236291</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.166273832321167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.52</v>
+        <v>18.45</v>
       </c>
       <c r="D2" t="n">
-        <v>21.29</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>32.4</v>
+        <v>29.81</v>
       </c>
       <c r="F2" t="n">
-        <v>5.130000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="G2" t="n">
-        <v>21.22</v>
+        <v>12.17</v>
       </c>
       <c r="H2" t="n">
-        <v>22.5</v>
+        <v>15.16</v>
       </c>
       <c r="I2" t="n">
-        <v>9.594999999999999</v>
+        <v>11.28</v>
       </c>
       <c r="J2" t="n">
-        <v>11.9</v>
+        <v>13.68</v>
       </c>
       <c r="K2" t="n">
-        <v>28.47</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.52</v>
+        <v>26.59</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.785</v>
+        <v>25.99</v>
       </c>
       <c r="E3" t="n">
-        <v>18.505</v>
+        <v>17.77</v>
       </c>
       <c r="F3" t="n">
-        <v>11.36</v>
+        <v>12.01</v>
       </c>
       <c r="G3" t="n">
-        <v>11.96</v>
+        <v>16.81</v>
       </c>
       <c r="H3" t="n">
-        <v>5.145</v>
+        <v>4.09</v>
       </c>
       <c r="I3" t="n">
-        <v>8.535</v>
+        <v>8.1</v>
       </c>
       <c r="J3" t="n">
-        <v>18.845</v>
+        <v>18.92</v>
       </c>
       <c r="K3" t="n">
-        <v>25.31</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.29</v>
+        <v>20.58</v>
       </c>
       <c r="C4" t="n">
-        <v>27.785</v>
+        <v>29.58</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.665</v>
+        <v>14.38</v>
       </c>
       <c r="F4" t="n">
-        <v>31.55</v>
+        <v>32.15</v>
       </c>
       <c r="G4" t="n">
-        <v>22.005</v>
+        <v>20.16</v>
       </c>
       <c r="H4" t="n">
-        <v>32.02</v>
+        <v>26.93</v>
       </c>
       <c r="I4" t="n">
-        <v>15.375</v>
+        <v>15.15</v>
       </c>
       <c r="J4" t="n">
-        <v>7.734999999999999</v>
+        <v>7.76</v>
       </c>
       <c r="K4" t="n">
-        <v>16.155</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.4</v>
+        <v>34.99</v>
       </c>
       <c r="C5" t="n">
-        <v>18.505</v>
+        <v>19.24</v>
       </c>
       <c r="D5" t="n">
-        <v>10.665</v>
+        <v>6.95</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.445</v>
+        <v>19.3</v>
       </c>
       <c r="G5" t="n">
-        <v>17.265</v>
+        <v>14.46</v>
       </c>
       <c r="H5" t="n">
-        <v>18.01</v>
+        <v>18.43</v>
       </c>
       <c r="I5" t="n">
-        <v>14.655</v>
+        <v>16.02</v>
       </c>
       <c r="J5" t="n">
-        <v>27.26</v>
+        <v>38.13</v>
       </c>
       <c r="K5" t="n">
-        <v>9.06</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.130000000000001</v>
+        <v>6.23</v>
       </c>
       <c r="C6" t="n">
-        <v>11.36</v>
+        <v>10.71</v>
       </c>
       <c r="D6" t="n">
-        <v>31.55</v>
+        <v>30.95</v>
       </c>
       <c r="E6" t="n">
-        <v>18.445</v>
+        <v>17.59</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.585</v>
+        <v>13.89</v>
       </c>
       <c r="H6" t="n">
-        <v>16.655</v>
+        <v>18.64</v>
       </c>
       <c r="I6" t="n">
-        <v>9.720000000000001</v>
+        <v>10.89</v>
       </c>
       <c r="J6" t="n">
-        <v>15.615</v>
+        <v>13.06</v>
       </c>
       <c r="K6" t="n">
-        <v>28.695</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.22</v>
+        <v>30.27</v>
       </c>
       <c r="C7" t="n">
-        <v>11.96</v>
+        <v>7.11</v>
       </c>
       <c r="D7" t="n">
-        <v>22.005</v>
+        <v>23.85</v>
       </c>
       <c r="E7" t="n">
-        <v>17.265</v>
+        <v>20.07</v>
       </c>
       <c r="F7" t="n">
-        <v>19.585</v>
+        <v>25.28</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.36</v>
+        <v>12.81</v>
       </c>
       <c r="I7" t="n">
-        <v>8.625</v>
+        <v>8.83</v>
       </c>
       <c r="J7" t="n">
-        <v>26.025</v>
+        <v>21.47</v>
       </c>
       <c r="K7" t="n">
-        <v>15.605</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.5</v>
+        <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>5.145</v>
+        <v>6.2</v>
       </c>
       <c r="D8" t="n">
-        <v>32.02</v>
+        <v>37.11</v>
       </c>
       <c r="E8" t="n">
-        <v>18.01</v>
+        <v>17.59</v>
       </c>
       <c r="F8" t="n">
-        <v>16.655</v>
+        <v>14.67</v>
       </c>
       <c r="G8" t="n">
-        <v>13.36</v>
+        <v>13.91</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.495</v>
+        <v>15.82</v>
       </c>
       <c r="J8" t="n">
-        <v>15.415</v>
+        <v>22.09</v>
       </c>
       <c r="K8" t="n">
-        <v>26.015</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.594999999999999</v>
+        <v>7.91</v>
       </c>
       <c r="C9" t="n">
-        <v>8.535</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>15.375</v>
+        <v>15.6</v>
       </c>
       <c r="E9" t="n">
-        <v>14.655</v>
+        <v>13.29</v>
       </c>
       <c r="F9" t="n">
-        <v>9.720000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>8.625</v>
+        <v>8.42</v>
       </c>
       <c r="H9" t="n">
-        <v>13.495</v>
+        <v>11.17</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>12.7</v>
+        <v>15.46</v>
       </c>
       <c r="K9" t="n">
-        <v>18.515</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9</v>
+        <v>10.12</v>
       </c>
       <c r="C10" t="n">
-        <v>18.845</v>
+        <v>18.77</v>
       </c>
       <c r="D10" t="n">
-        <v>7.734999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="E10" t="n">
-        <v>27.26</v>
+        <v>16.39</v>
       </c>
       <c r="F10" t="n">
-        <v>15.615</v>
+        <v>18.17</v>
       </c>
       <c r="G10" t="n">
-        <v>26.025</v>
+        <v>30.58</v>
       </c>
       <c r="H10" t="n">
-        <v>15.415</v>
+        <v>8.74</v>
       </c>
       <c r="I10" t="n">
-        <v>12.7</v>
+        <v>9.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>31.39</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.47</v>
+        <v>25.2</v>
       </c>
       <c r="C11" t="n">
-        <v>25.31</v>
+        <v>20.83</v>
       </c>
       <c r="D11" t="n">
-        <v>16.155</v>
+        <v>14.75</v>
       </c>
       <c r="E11" t="n">
-        <v>9.06</v>
+        <v>8.24</v>
       </c>
       <c r="F11" t="n">
-        <v>28.695</v>
+        <v>30.39</v>
       </c>
       <c r="G11" t="n">
-        <v>15.605</v>
+        <v>11.96</v>
       </c>
       <c r="H11" t="n">
-        <v>26.015</v>
+        <v>32.15</v>
       </c>
       <c r="I11" t="n">
-        <v>18.515</v>
+        <v>17.65</v>
       </c>
       <c r="J11" t="n">
-        <v>31.39</v>
+        <v>34.53</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>17.91</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26.24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="J5" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>22.39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="F7" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K7" t="n">
-        <v>20.69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12.35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="H10" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>25.22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-4.592753330230878</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.421001878913128</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.966825380771416</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.358623815665887</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>20.71152160540832</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.556171624293868</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.04818196994</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-7.393468505999484</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-1.456381969446157</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.15074860969423</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11.34907845941093</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.88474421751106</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.7061862591133593</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.516241290830158</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.02474858123981</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.175222481097921</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10.83128526768956</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.70080435027889</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-1.60726459921116</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-9.241001995014839</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.94</v>
+        <v>22.15</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05</v>
+        <v>21.28</v>
       </c>
       <c r="E2" t="n">
-        <v>24.39</v>
+        <v>32.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.82</v>
+        <v>5.01</v>
       </c>
       <c r="G2" t="n">
-        <v>12.42</v>
+        <v>19.19</v>
       </c>
       <c r="H2" t="n">
-        <v>10.97</v>
+        <v>21.27</v>
       </c>
       <c r="I2" t="n">
-        <v>9.99</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.62</v>
+        <v>11.76</v>
       </c>
       <c r="K2" t="n">
-        <v>29.45</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.94</v>
+        <v>22.15</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.11</v>
+        <v>27.72</v>
       </c>
       <c r="E3" t="n">
-        <v>17.45</v>
+        <v>18.49</v>
       </c>
       <c r="F3" t="n">
-        <v>6.12</v>
+        <v>11.34</v>
       </c>
       <c r="G3" t="n">
-        <v>5.48</v>
+        <v>10.93</v>
       </c>
       <c r="H3" t="n">
-        <v>4.03</v>
+        <v>5.03</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>8.52</v>
       </c>
       <c r="J3" t="n">
-        <v>2.32</v>
+        <v>18.85</v>
       </c>
       <c r="K3" t="n">
-        <v>22.52</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.05</v>
+        <v>21.28</v>
       </c>
       <c r="C4" t="n">
-        <v>12.11</v>
+        <v>27.72</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.34</v>
+        <v>9.99</v>
       </c>
       <c r="F4" t="n">
-        <v>18.23</v>
+        <v>31.54</v>
       </c>
       <c r="G4" t="n">
-        <v>6.63</v>
+        <v>21.93</v>
       </c>
       <c r="H4" t="n">
-        <v>8.08</v>
+        <v>31.62</v>
       </c>
       <c r="I4" t="n">
-        <v>9.06</v>
+        <v>15.38</v>
       </c>
       <c r="J4" t="n">
-        <v>14.43</v>
+        <v>7.73</v>
       </c>
       <c r="K4" t="n">
-        <v>10.4</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.39</v>
+        <v>32.3</v>
       </c>
       <c r="C5" t="n">
-        <v>17.45</v>
+        <v>18.49</v>
       </c>
       <c r="D5" t="n">
-        <v>5.34</v>
+        <v>9.99</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.57</v>
+        <v>18.42</v>
       </c>
       <c r="G5" t="n">
-        <v>11.97</v>
+        <v>17.03</v>
       </c>
       <c r="H5" t="n">
-        <v>13.42</v>
+        <v>18.01</v>
       </c>
       <c r="I5" t="n">
-        <v>14.4</v>
+        <v>14.59</v>
       </c>
       <c r="J5" t="n">
-        <v>19.77</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>5.07</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.82</v>
+        <v>5.01</v>
       </c>
       <c r="C6" t="n">
-        <v>6.12</v>
+        <v>11.34</v>
       </c>
       <c r="D6" t="n">
-        <v>18.23</v>
+        <v>31.54</v>
       </c>
       <c r="E6" t="n">
-        <v>23.57</v>
+        <v>18.42</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.6</v>
+        <v>18.73</v>
       </c>
       <c r="H6" t="n">
-        <v>10.15</v>
+        <v>16.53</v>
       </c>
       <c r="I6" t="n">
-        <v>9.17</v>
+        <v>9.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>15.41</v>
       </c>
       <c r="K6" t="n">
-        <v>28.63</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.42</v>
+        <v>19.19</v>
       </c>
       <c r="C7" t="n">
-        <v>5.48</v>
+        <v>10.93</v>
       </c>
       <c r="D7" t="n">
-        <v>6.63</v>
+        <v>21.93</v>
       </c>
       <c r="E7" t="n">
-        <v>11.97</v>
+        <v>17.03</v>
       </c>
       <c r="F7" t="n">
-        <v>11.6</v>
+        <v>18.73</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.45</v>
+        <v>13.35</v>
       </c>
       <c r="I7" t="n">
-        <v>2.43</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>25.62</v>
       </c>
       <c r="K7" t="n">
-        <v>17.04</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.97</v>
+        <v>21.27</v>
       </c>
       <c r="C8" t="n">
-        <v>4.03</v>
+        <v>5.03</v>
       </c>
       <c r="D8" t="n">
-        <v>8.08</v>
+        <v>31.62</v>
       </c>
       <c r="E8" t="n">
-        <v>13.42</v>
+        <v>18.01</v>
       </c>
       <c r="F8" t="n">
-        <v>10.15</v>
+        <v>16.53</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>13.35</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.98</v>
+        <v>13.29</v>
       </c>
       <c r="J8" t="n">
-        <v>6.35</v>
+        <v>13.89</v>
       </c>
       <c r="K8" t="n">
-        <v>18.49</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.99</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>3.05</v>
+        <v>8.52</v>
       </c>
       <c r="D9" t="n">
-        <v>9.06</v>
+        <v>15.38</v>
       </c>
       <c r="E9" t="n">
-        <v>14.4</v>
+        <v>14.59</v>
       </c>
       <c r="F9" t="n">
-        <v>9.17</v>
+        <v>9.65</v>
       </c>
       <c r="G9" t="n">
-        <v>2.43</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.98</v>
+        <v>13.29</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.37</v>
+        <v>12.4</v>
       </c>
       <c r="K9" t="n">
-        <v>19.46</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.62</v>
+        <v>11.76</v>
       </c>
       <c r="C10" t="n">
-        <v>2.32</v>
+        <v>18.85</v>
       </c>
       <c r="D10" t="n">
-        <v>14.43</v>
+        <v>7.73</v>
       </c>
       <c r="E10" t="n">
-        <v>19.77</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>15.41</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>25.62</v>
       </c>
       <c r="H10" t="n">
-        <v>6.35</v>
+        <v>13.89</v>
       </c>
       <c r="I10" t="n">
-        <v>5.37</v>
+        <v>12.4</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>24.83</v>
+        <v>31.23</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.45</v>
+        <v>28.28</v>
       </c>
       <c r="C11" t="n">
-        <v>22.52</v>
+        <v>24.91</v>
       </c>
       <c r="D11" t="n">
-        <v>10.4</v>
+        <v>16.09</v>
       </c>
       <c r="E11" t="n">
-        <v>5.07</v>
+        <v>9.02</v>
       </c>
       <c r="F11" t="n">
-        <v>28.63</v>
+        <v>28.64</v>
       </c>
       <c r="G11" t="n">
-        <v>17.04</v>
+        <v>15.18</v>
       </c>
       <c r="H11" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="I11" t="n">
         <v>18.49</v>
       </c>
-      <c r="I11" t="n">
-        <v>19.46</v>
-      </c>
       <c r="J11" t="n">
-        <v>24.83</v>
+        <v>31.23</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
